--- a/data/costo_ventas/1_costo_ventas.xlsx
+++ b/data/costo_ventas/1_costo_ventas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\costo_ventas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\costo_ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6658DDDF-2F52-400A-B99A-44AF4A3EA8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D37C900-E3AE-4559-96DF-577A1A2C8730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{69767CE1-037C-4BFD-BEE1-A96D64583BBB}"/>
+    <workbookView xWindow="4728" yWindow="3408" windowWidth="14340" windowHeight="7368" xr2:uid="{69767CE1-037C-4BFD-BEE1-A96D64583BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="repetidos_match_1ro" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>fact_line_id</t>
+  </si>
+  <si>
+    <t>line_id</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,13 +48,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,14 +402,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6AD27B-0B32-4071-9260-9D804BC9A905}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>396</v>
+      </c>
+      <c r="B2">
+        <v>18752</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>